--- a/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA771CC-38D4-45EB-B9C0-4DA7DE838089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F66952-6008-4FE1-BFBF-C9AE58C0582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6340AED-6AF4-4C3C-930E-02FDEB303CB0}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{02B232CE-FE2F-48FF-97EE-E89C269038F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,216 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
     <t>24,57%</t>
   </si>
   <si>
@@ -118,33 +307,6 @@
     <t>22,67%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
     <t>45,58%</t>
   </si>
   <si>
@@ -172,30 +334,6 @@
     <t>50,37%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
     <t>20,39%</t>
   </si>
   <si>
@@ -223,142 +361,55 @@
     <t>27,68%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>24,22%</t>
@@ -388,30 +439,6 @@
     <t>22,52%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -439,33 +466,6 @@
     <t>49,01%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
     <t>21,79%</t>
   </si>
   <si>
@@ -496,6 +496,183 @@
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
   </si>
   <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
     <t>16,9%</t>
   </si>
   <si>
@@ -523,33 +700,6 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
     <t>39,64%</t>
   </si>
   <si>
@@ -577,33 +727,6 @@
     <t>43,33%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
     <t>33,67%</t>
   </si>
   <si>
@@ -625,127 +748,46 @@
     <t>39,9%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>14,97%</t>
@@ -775,21 +817,6 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
     <t>39,36%</t>
   </si>
   <si>
@@ -811,33 +838,6 @@
     <t>42,49%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
     <t>35,75%</t>
   </si>
   <si>
@@ -865,6 +865,180 @@
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
     <t>20,46%</t>
   </si>
   <si>
@@ -892,30 +1066,6 @@
     <t>21,01%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
     <t>39,18%</t>
   </si>
   <si>
@@ -943,30 +1093,6 @@
     <t>42,12%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>33,12%</t>
   </si>
   <si>
@@ -991,130 +1117,46 @@
     <t>40,17%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>18,59%</t>
@@ -1138,33 +1180,6 @@
     <t>19,51%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
     <t>38,63%</t>
   </si>
   <si>
@@ -1187,21 +1202,6 @@
   </si>
   <si>
     <t>40,7%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
   </si>
   <si>
     <t>35,98%</t>
@@ -1620,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F206D9-B477-4DA4-878E-670F24B62914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F0510-81B4-4790-8529-C1DDCABE4191}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2010,10 +2010,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>68317</v>
+        <v>3285</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2025,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>39666</v>
+        <v>1355</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2040,10 +2040,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>107983</v>
+        <v>4639</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2061,10 +2061,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>18280</v>
+        <v>3335</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2076,34 +2076,34 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>8047</v>
+        <v>1390</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4725</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>26327</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2112,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>126719</v>
+        <v>14911</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10067</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>192</v>
-      </c>
-      <c r="I12" s="7">
-        <v>129126</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>38</v>
+      </c>
+      <c r="N12" s="7">
+        <v>24977</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="7">
-        <v>381</v>
-      </c>
-      <c r="N12" s="7">
-        <v>255845</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,49 +2163,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>8007</v>
+        <v>25888</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22443</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10889</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>48330</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>28</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18897</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,10 +2214,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>56703</v>
+        <v>18161</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>52</v>
@@ -2229,10 +2229,10 @@
         <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>76398</v>
+        <v>20788</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
@@ -2244,10 +2244,10 @@
         <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="N14" s="7">
-        <v>133100</v>
+        <v>38948</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
@@ -2265,10 +2265,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>417</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>278025</v>
+        <v>65579</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -2280,10 +2280,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>392</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>264127</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -2295,10 +2295,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>809</v>
+        <v>182</v>
       </c>
       <c r="N15" s="7">
-        <v>542152</v>
+        <v>121620</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -2318,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>14911</v>
+        <v>8007</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
@@ -2333,10 +2333,10 @@
         <v>65</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>10067</v>
+        <v>10889</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>66</v>
@@ -2348,10 +2348,10 @@
         <v>68</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>24977</v>
+        <v>18897</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
@@ -2369,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>3335</v>
+        <v>18280</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>72</v>
@@ -2384,10 +2384,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>1390</v>
+        <v>8047</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>75</v>
@@ -2399,19 +2399,19 @@
         <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>4725</v>
+        <v>26327</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,49 +2420,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7">
-        <v>25888</v>
+        <v>68317</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7">
+        <v>39666</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22443</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>163</v>
+      </c>
+      <c r="N18" s="7">
+        <v>107983</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="7">
-        <v>72</v>
-      </c>
-      <c r="N18" s="7">
-        <v>48330</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,40 +2471,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="D19" s="7">
-        <v>3285</v>
+        <v>126719</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>192</v>
+      </c>
+      <c r="I19" s="7">
+        <v>129126</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1355</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>94</v>
       </c>
       <c r="M19" s="7">
-        <v>7</v>
+        <v>381</v>
       </c>
       <c r="N19" s="7">
-        <v>4639</v>
+        <v>255845</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>95</v>
@@ -2522,10 +2522,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D20" s="7">
-        <v>18161</v>
+        <v>56703</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>98</v>
@@ -2537,10 +2537,10 @@
         <v>100</v>
       </c>
       <c r="H20" s="7">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I20" s="7">
-        <v>20788</v>
+        <v>76398</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>101</v>
@@ -2552,10 +2552,10 @@
         <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="N20" s="7">
-        <v>38948</v>
+        <v>133100</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>104</v>
@@ -2573,10 +2573,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="D21" s="7">
-        <v>65579</v>
+        <v>278025</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -2588,10 +2588,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>392</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>264127</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -2603,10 +2603,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>182</v>
+        <v>809</v>
       </c>
       <c r="N21" s="7">
-        <v>121620</v>
+        <v>542152</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -2626,10 +2626,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>83228</v>
+        <v>11292</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>107</v>
@@ -2641,10 +2641,10 @@
         <v>109</v>
       </c>
       <c r="H22" s="7">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>49733</v>
+        <v>12244</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>110</v>
@@ -2656,10 +2656,10 @@
         <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>132960</v>
+        <v>23536</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>113</v>
@@ -2701,7 +2701,7 @@
         <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>120</v>
@@ -2728,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="D24" s="7">
-        <v>152606</v>
+        <v>83228</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>124</v>
@@ -2743,10 +2743,10 @@
         <v>126</v>
       </c>
       <c r="H24" s="7">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="I24" s="7">
-        <v>151568</v>
+        <v>49733</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>127</v>
@@ -2758,10 +2758,10 @@
         <v>129</v>
       </c>
       <c r="M24" s="7">
-        <v>453</v>
+        <v>201</v>
       </c>
       <c r="N24" s="7">
-        <v>304175</v>
+        <v>132960</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>130</v>
@@ -2779,10 +2779,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="D25" s="7">
-        <v>11292</v>
+        <v>152606</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>133</v>
@@ -2794,10 +2794,10 @@
         <v>135</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I25" s="7">
-        <v>12244</v>
+        <v>151568</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>136</v>
@@ -2809,10 +2809,10 @@
         <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>453</v>
       </c>
       <c r="N25" s="7">
-        <v>23536</v>
+        <v>304175</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>139</v>
@@ -2942,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A4C152-38A4-4C7D-923F-387075FF7466}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F524C65-6C2B-4B63-BC75-798D36BF2BB0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,49 +3332,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>45010</v>
+        <v>2001</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="7">
-        <v>52</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36559</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2001</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="7">
-        <v>117</v>
-      </c>
-      <c r="N10" s="7">
-        <v>81569</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3383,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>17213</v>
+        <v>4918</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2093</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9004</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7">
+        <v>7011</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="7">
-        <v>39</v>
-      </c>
-      <c r="N11" s="7">
-        <v>26217</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3434,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>105567</v>
+        <v>4758</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5983</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="7">
-        <v>140</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99801</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>10740</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="M12" s="7">
-        <v>297</v>
-      </c>
-      <c r="N12" s="7">
-        <v>205369</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,49 +3485,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>8880</v>
+        <v>25296</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="7">
+        <v>37</v>
+      </c>
+      <c r="I13" s="7">
+        <v>26680</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6660</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>51976</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="M13" s="7">
-        <v>24</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15541</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,49 +3536,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>89663</v>
+        <v>29201</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="7">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7">
+        <v>37213</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H14" s="7">
-        <v>140</v>
-      </c>
-      <c r="I14" s="7">
-        <v>97316</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>93</v>
+      </c>
+      <c r="N14" s="7">
+        <v>66414</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="7">
-        <v>270</v>
-      </c>
-      <c r="N14" s="7">
-        <v>186980</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>266334</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -3602,10 +3602,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249341</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -3617,10 +3617,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>747</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>515675</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -3640,49 +3640,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>4758</v>
+        <v>8880</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6660</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5983</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>24</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15541</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10740</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3691,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>4918</v>
+        <v>17213</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>13</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9004</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2093</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>39</v>
+      </c>
+      <c r="N17" s="7">
+        <v>26217</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M17" s="7">
-        <v>10</v>
-      </c>
-      <c r="N17" s="7">
-        <v>7011</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +3742,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>25296</v>
+        <v>45010</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>52</v>
+      </c>
+      <c r="I18" s="7">
+        <v>36559</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>26680</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>117</v>
+      </c>
+      <c r="N18" s="7">
+        <v>81569</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M18" s="7">
-        <v>72</v>
-      </c>
-      <c r="N18" s="7">
-        <v>51976</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +3793,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="D19" s="7">
-        <v>2001</v>
+        <v>105567</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>99801</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>297</v>
       </c>
       <c r="N19" s="7">
-        <v>2001</v>
+        <v>205369</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,28 +3844,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D20" s="7">
-        <v>29201</v>
+        <v>89663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>37213</v>
+        <v>97316</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>231</v>
@@ -3874,10 +3874,10 @@
         <v>232</v>
       </c>
       <c r="M20" s="7">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="N20" s="7">
-        <v>66414</v>
+        <v>186980</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>233</v>
@@ -3895,10 +3895,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>392</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>266334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -3910,10 +3910,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249341</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -3925,10 +3925,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>747</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>515675</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -3948,10 +3948,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>49768</v>
+        <v>10881</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>236</v>
@@ -3963,10 +3963,10 @@
         <v>238</v>
       </c>
       <c r="H22" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>42542</v>
+        <v>6660</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>239</v>
@@ -3978,10 +3978,10 @@
         <v>241</v>
       </c>
       <c r="M22" s="7">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>92310</v>
+        <v>17542</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>242</v>
@@ -4023,7 +4023,7 @@
         <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>249</v>
@@ -4035,10 +4035,10 @@
         <v>33228</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>245</v>
@@ -4050,10 +4050,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="D24" s="7">
-        <v>130863</v>
+        <v>49768</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>250</v>
@@ -4065,34 +4065,34 @@
         <v>252</v>
       </c>
       <c r="H24" s="7">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="I24" s="7">
-        <v>126482</v>
+        <v>42542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M24" s="7">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="N24" s="7">
-        <v>257345</v>
+        <v>92310</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,43 +4101,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="D25" s="7">
-        <v>10881</v>
+        <v>130863</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>126482</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6660</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M25" s="7">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="N25" s="7">
-        <v>17542</v>
+        <v>257345</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>264</v>
@@ -4164,7 +4164,7 @@
         <v>267</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="H26" s="7">
         <v>193</v>
@@ -4264,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924111BC-2CF8-48B2-B4E7-69691E85836A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97296E8E-B3BE-4C0B-B510-47CA3F2F9332}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4654,49 +4654,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>57360</v>
+        <v>1370</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1346</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H10" s="7">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42620</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2715</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M10" s="7">
-        <v>140</v>
-      </c>
-      <c r="N10" s="7">
-        <v>99980</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +4705,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>14388</v>
+        <v>2756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2500</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10746</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5256</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>25134</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +4756,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>109856</v>
+        <v>9468</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <v>12581</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="7">
-        <v>139</v>
-      </c>
-      <c r="I12" s="7">
-        <v>100575</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>33</v>
+      </c>
+      <c r="N12" s="7">
+        <v>22049</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M12" s="7">
-        <v>287</v>
-      </c>
-      <c r="N12" s="7">
-        <v>210431</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,49 +4807,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>5912</v>
+        <v>28990</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>48</v>
+      </c>
+      <c r="I13" s="7">
+        <v>31367</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5086</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>91</v>
+      </c>
+      <c r="N13" s="7">
+        <v>60357</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10998</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,28 +4858,28 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>92854</v>
+        <v>36436</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>64</v>
+      </c>
+      <c r="I14" s="7">
+        <v>42920</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="H14" s="7">
-        <v>150</v>
-      </c>
-      <c r="I14" s="7">
-        <v>106231</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>312</v>
@@ -4888,10 +4888,10 @@
         <v>313</v>
       </c>
       <c r="M14" s="7">
-        <v>275</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>199085</v>
+        <v>79356</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>314</v>
@@ -4909,10 +4909,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7">
-        <v>280370</v>
+        <v>79019</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -4924,10 +4924,10 @@
         <v>61</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7">
-        <v>265259</v>
+        <v>90714</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -4939,10 +4939,10 @@
         <v>61</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>545629</v>
+        <v>169733</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -4962,10 +4962,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>9468</v>
+        <v>5912</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>317</v>
@@ -4977,10 +4977,10 @@
         <v>319</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>12581</v>
+        <v>5086</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>320</v>
@@ -4992,10 +4992,10 @@
         <v>322</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>22049</v>
+        <v>10998</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>323</v>
@@ -5013,49 +5013,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>2756</v>
+        <v>14388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10746</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2500</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7">
+        <v>25134</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M17" s="7">
-        <v>8</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5256</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5064,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
-        <v>28990</v>
+        <v>57360</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>61</v>
+      </c>
+      <c r="I18" s="7">
+        <v>42620</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H18" s="7">
-        <v>48</v>
-      </c>
-      <c r="I18" s="7">
-        <v>31367</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>140</v>
+      </c>
+      <c r="N18" s="7">
+        <v>99980</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="M18" s="7">
-        <v>91</v>
-      </c>
-      <c r="N18" s="7">
-        <v>60357</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,49 +5115,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7">
-        <v>1370</v>
+        <v>109856</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>344</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="I19" s="7">
-        <v>1346</v>
+        <v>100575</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>345</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>287</v>
       </c>
       <c r="N19" s="7">
-        <v>2715</v>
+        <v>210431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,28 +5166,28 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>36436</v>
+        <v>92854</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="I20" s="7">
-        <v>42920</v>
+        <v>106231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>354</v>
@@ -5196,10 +5196,10 @@
         <v>355</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="N20" s="7">
-        <v>79356</v>
+        <v>199085</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>356</v>
@@ -5217,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="D21" s="7">
-        <v>79019</v>
+        <v>280370</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>61</v>
@@ -5232,10 +5232,10 @@
         <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>90714</v>
+        <v>265259</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
@@ -5247,10 +5247,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>251</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>169733</v>
+        <v>545629</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>61</v>
@@ -5270,49 +5270,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>66828</v>
+        <v>7282</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>201</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H22" s="7">
+        <v>9</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6432</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H22" s="7">
-        <v>80</v>
-      </c>
-      <c r="I22" s="7">
-        <v>55201</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="M22" s="7">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>122029</v>
+        <v>13713</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5327,13 @@
         <v>17144</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -5342,13 +5342,13 @@
         <v>13247</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>42</v>
@@ -5357,13 +5357,13 @@
         <v>30390</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +5372,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D24" s="7">
-        <v>138845</v>
+        <v>66828</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H24" s="7">
+        <v>80</v>
+      </c>
+      <c r="I24" s="7">
+        <v>55201</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M24" s="7">
+        <v>173</v>
+      </c>
+      <c r="N24" s="7">
+        <v>122029</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H24" s="7">
-        <v>187</v>
-      </c>
-      <c r="I24" s="7">
-        <v>131942</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="M24" s="7">
-        <v>378</v>
-      </c>
-      <c r="N24" s="7">
-        <v>270788</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +5423,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7">
-        <v>7282</v>
+        <v>138845</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H25" s="7">
+        <v>187</v>
+      </c>
+      <c r="I25" s="7">
+        <v>131942</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6432</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>378</v>
+      </c>
+      <c r="N25" s="7">
+        <v>270788</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="M25" s="7">
-        <v>19</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13713</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F66952-6008-4FE1-BFBF-C9AE58C0582C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE29A49-1343-407E-AFB3-6878DA830159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{02B232CE-FE2F-48FF-97EE-E89C269038F6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B9E8842-3A52-4CF4-BBCD-E715E289B993}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -67,1168 +67,1183 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
   </si>
   <si>
     <t>37,07%</t>
   </si>
   <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1254,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1335,39 +1350,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1419,7 +1434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1530,13 +1545,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1545,6 +1553,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1609,19 +1624,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F0510-81B4-4790-8529-C1DDCABE4191}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE90389-3C9D-4574-9521-66C7CB5EBD5E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2010,49 +2045,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>4639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2090,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3335</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2135,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7">
-        <v>14911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>24977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,49 +2180,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22443</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,49 +2225,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7">
-        <v>18161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>58</v>
-      </c>
-      <c r="N14" s="7">
-        <v>38948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,102 +2270,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>99</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>182</v>
-      </c>
-      <c r="N15" s="7">
-        <v>121620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>8007</v>
+        <v>36999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>10889</v>
+        <v>50990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="N16" s="7">
-        <v>18897</v>
+        <v>87989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,49 +2368,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7">
+        <v>60152</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7">
-        <v>18280</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>8047</v>
+        <v>55187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="N17" s="7">
-        <v>26327</v>
+        <v>115338</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,49 +2419,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>68317</v>
+        <v>31477</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I18" s="7">
-        <v>39666</v>
+        <v>16887</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="N18" s="7">
-        <v>107983</v>
+        <v>48364</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,49 +2470,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>126719</v>
+        <v>6191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>129126</v>
+        <v>3130</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>381</v>
+        <v>14</v>
       </c>
       <c r="N19" s="7">
-        <v>255845</v>
+        <v>9321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,49 +2521,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>56703</v>
+        <v>5514</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>76398</v>
+        <v>1355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>133100</v>
+        <v>6869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,102 +2572,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>278025</v>
+        <v>140333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>392</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>264127</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>809</v>
+        <v>401</v>
       </c>
       <c r="N21" s="7">
-        <v>542152</v>
+        <v>267881</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7">
-        <v>11292</v>
+        <v>37864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>12244</v>
+        <v>46196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="N22" s="7">
-        <v>23536</v>
+        <v>84059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2676,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D23" s="7">
-        <v>21615</v>
+        <v>92455</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I23" s="7">
-        <v>9438</v>
+        <v>96382</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="N23" s="7">
-        <v>31052</v>
+        <v>188836</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,49 +2727,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="D24" s="7">
-        <v>83228</v>
+        <v>51750</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>49733</v>
+        <v>32846</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="7">
         <v>128</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M24" s="7">
-        <v>201</v>
-      </c>
       <c r="N24" s="7">
-        <v>132960</v>
+        <v>84596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,49 +2778,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>152606</v>
+        <v>15424</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>225</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>151568</v>
+        <v>6308</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>453</v>
+        <v>32</v>
       </c>
       <c r="N25" s="7">
-        <v>304175</v>
+        <v>21732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,49 +2829,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="D26" s="7">
-        <v>74863</v>
+        <v>5778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I26" s="7">
-        <v>97185</v>
+        <v>10889</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="N26" s="7">
-        <v>172048</v>
+        <v>16667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,55 +2880,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>306</v>
+      </c>
+      <c r="D27" s="7">
+        <v>203271</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>284</v>
+      </c>
+      <c r="I27" s="7">
+        <v>192621</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>590</v>
+      </c>
+      <c r="N27" s="7">
+        <v>395891</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>112</v>
+      </c>
+      <c r="D28" s="7">
+        <v>74863</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
+        <v>144</v>
+      </c>
+      <c r="I28" s="7">
+        <v>97185</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="7">
+        <v>256</v>
+      </c>
+      <c r="N28" s="7">
+        <v>172048</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>228</v>
+      </c>
+      <c r="D29" s="7">
+        <v>152606</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
+        <v>225</v>
+      </c>
+      <c r="I29" s="7">
+        <v>151568</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7">
+        <v>453</v>
+      </c>
+      <c r="N29" s="7">
+        <v>304175</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>127</v>
+      </c>
+      <c r="D30" s="7">
+        <v>83228</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="7">
+        <v>74</v>
+      </c>
+      <c r="I30" s="7">
+        <v>49733</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="7">
+        <v>201</v>
+      </c>
+      <c r="N30" s="7">
+        <v>132960</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>32</v>
+      </c>
+      <c r="D31" s="7">
+        <v>21615</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
+        <v>14</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9438</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="7">
+        <v>46</v>
+      </c>
+      <c r="N31" s="7">
+        <v>31052</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7">
+        <v>11292</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="7">
+        <v>18</v>
+      </c>
+      <c r="I32" s="7">
+        <v>12244</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M32" s="7">
+        <v>35</v>
+      </c>
+      <c r="N32" s="7">
+        <v>23536</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>516</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>343604</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>320168</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>991</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>663772</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2942,8 +3255,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F524C65-6C2B-4B63-BC75-798D36BF2BB0}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD3E37D-F2A9-4DF2-B2BF-6CFD6E258111}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2959,7 +3272,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3332,49 +3645,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3690,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3735,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,49 +3780,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>25296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>26680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
-      </c>
-      <c r="N13" s="7">
-        <v>51976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,49 +3825,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>93</v>
-      </c>
-      <c r="N14" s="7">
-        <v>66414</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,102 +3870,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>8880</v>
+        <v>65900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="I16" s="7">
-        <v>6660</v>
+        <v>77640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="N16" s="7">
-        <v>15541</v>
+        <v>143540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3968,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D17" s="7">
-        <v>17213</v>
+        <v>59550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>9004</v>
+        <v>58321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="N17" s="7">
-        <v>26217</v>
+        <v>117871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +4019,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>45010</v>
+        <v>17957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>36559</v>
+        <v>13213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="M18" s="7">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>81569</v>
+        <v>31171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,49 +4070,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>105567</v>
+        <v>9356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>99801</v>
+        <v>4090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>205369</v>
+        <v>13446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,49 +4121,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>89663</v>
+        <v>3911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>97316</v>
+        <v>2250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>186980</v>
+        <v>6161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,102 +4172,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>266334</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249341</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>747</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>515675</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>10881</v>
+        <v>52965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>6660</v>
+        <v>56889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="N22" s="7">
-        <v>17542</v>
+        <v>109854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +4276,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7">
-        <v>22131</v>
+        <v>71313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I23" s="7">
-        <v>11097</v>
+        <v>68161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="N23" s="7">
-        <v>33228</v>
+        <v>139474</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4327,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>49768</v>
+        <v>31811</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H24" s="7">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7">
-        <v>42542</v>
+        <v>29328</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="N24" s="7">
-        <v>92310</v>
+        <v>61139</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,49 +4378,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>130863</v>
+        <v>12775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>126482</v>
+        <v>7007</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="N25" s="7">
-        <v>257345</v>
+        <v>19783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,49 +4429,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>118864</v>
+        <v>6970</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>235</v>
       </c>
       <c r="H26" s="7">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>134529</v>
+        <v>4411</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M26" s="7">
-        <v>363</v>
+        <v>18</v>
       </c>
       <c r="N26" s="7">
-        <v>253394</v>
+        <v>11381</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,55 +4480,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175834</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165796</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>494</v>
+      </c>
+      <c r="N27" s="7">
+        <v>341630</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7">
+        <v>118864</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H28" s="7">
+        <v>193</v>
+      </c>
+      <c r="I28" s="7">
+        <v>134529</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" s="7">
+        <v>363</v>
+      </c>
+      <c r="N28" s="7">
+        <v>253394</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>192</v>
+      </c>
+      <c r="D29" s="7">
+        <v>130863</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H29" s="7">
+        <v>177</v>
+      </c>
+      <c r="I29" s="7">
+        <v>126482</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" s="7">
+        <v>369</v>
+      </c>
+      <c r="N29" s="7">
+        <v>257345</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7">
+        <v>49768</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H30" s="7">
+        <v>60</v>
+      </c>
+      <c r="I30" s="7">
+        <v>42542</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" s="7">
+        <v>132</v>
+      </c>
+      <c r="N30" s="7">
+        <v>92310</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>33</v>
+      </c>
+      <c r="D31" s="7">
+        <v>22131</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H31" s="7">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>11097</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M31" s="7">
+        <v>49</v>
+      </c>
+      <c r="N31" s="7">
+        <v>33228</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10881</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="7">
+        <v>10</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6660</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" s="7">
+        <v>27</v>
+      </c>
+      <c r="N32" s="7">
+        <v>17542</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>484</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>332508</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321310</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>940</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>653818</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4264,8 +4855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97296E8E-B3BE-4C0B-B510-47CA3F2F9332}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDB7508-C6DF-48A7-B1D4-E4E7513B0997}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4281,7 +4872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4654,49 +5245,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1346</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +5290,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +5335,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>14</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
-      </c>
-      <c r="N12" s="7">
-        <v>22049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,49 +5380,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>91</v>
-      </c>
-      <c r="N13" s="7">
-        <v>60357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +5425,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36436</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>42920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
-      </c>
-      <c r="N14" s="7">
-        <v>79356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,102 +5470,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>114</v>
-      </c>
-      <c r="D15" s="7">
-        <v>79019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>137</v>
-      </c>
-      <c r="I15" s="7">
-        <v>90714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>251</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169733</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>5912</v>
+        <v>81888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7">
-        <v>5086</v>
+        <v>85655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="N16" s="7">
-        <v>10998</v>
+        <v>167543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5568,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>14388</v>
+        <v>62851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>10746</v>
+        <v>66270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="N17" s="7">
-        <v>25134</v>
+        <v>129122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5619,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>57360</v>
+        <v>27707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>42620</v>
+        <v>23975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>336</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="N18" s="7">
-        <v>99980</v>
+        <v>51683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,49 +5670,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>109856</v>
+        <v>7653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>100575</v>
+        <v>6635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
-        <v>287</v>
+        <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>210431</v>
+        <v>14288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,49 +5721,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>92854</v>
+        <v>5243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>106231</v>
+        <v>2647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>199085</v>
+        <v>7890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,102 +5772,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>379</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>280370</v>
+        <v>185342</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>372</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>265259</v>
+        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>524</v>
       </c>
       <c r="N21" s="7">
-        <v>545629</v>
+        <v>370525</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
-        <v>7282</v>
+        <v>47403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7">
-        <v>6432</v>
+        <v>63496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="N22" s="7">
-        <v>13713</v>
+        <v>110899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,49 +5876,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D23" s="7">
-        <v>17144</v>
+        <v>75995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="I23" s="7">
-        <v>13247</v>
+        <v>65672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="N23" s="7">
-        <v>30390</v>
+        <v>141666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +5927,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7">
-        <v>66828</v>
+        <v>39121</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>55201</v>
+        <v>31226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>373</v>
+        <v>220</v>
       </c>
       <c r="M24" s="7">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="N24" s="7">
-        <v>122029</v>
+        <v>70346</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,49 +5978,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>191</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>138845</v>
+        <v>9491</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>131942</v>
+        <v>6611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
-        <v>378</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>270788</v>
+        <v>16102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,49 +6029,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>129291</v>
+        <v>2039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7">
-        <v>149151</v>
+        <v>3785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
-        <v>390</v>
+        <v>8</v>
       </c>
       <c r="N26" s="7">
-        <v>278442</v>
+        <v>5824</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,55 +6080,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>243</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>478</v>
+      </c>
+      <c r="N27" s="7">
+        <v>344837</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>176</v>
+      </c>
+      <c r="D28" s="7">
+        <v>129291</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H28" s="7">
+        <v>214</v>
+      </c>
+      <c r="I28" s="7">
+        <v>149151</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M28" s="7">
+        <v>390</v>
+      </c>
+      <c r="N28" s="7">
+        <v>278442</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>138845</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H29" s="7">
+        <v>187</v>
+      </c>
+      <c r="I29" s="7">
+        <v>131942</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M29" s="7">
+        <v>378</v>
+      </c>
+      <c r="N29" s="7">
+        <v>270788</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>93</v>
+      </c>
+      <c r="D30" s="7">
+        <v>66828</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="7">
+        <v>80</v>
+      </c>
+      <c r="I30" s="7">
+        <v>55201</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M30" s="7">
+        <v>173</v>
+      </c>
+      <c r="N30" s="7">
+        <v>122029</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>23</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17144</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H31" s="7">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13247</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M31" s="7">
+        <v>42</v>
+      </c>
+      <c r="N31" s="7">
+        <v>30390</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7282</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="7">
+        <v>9</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6432</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M32" s="7">
+        <v>19</v>
+      </c>
+      <c r="N32" s="7">
+        <v>13713</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>359389</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>355972</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>1002</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>715362</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>61</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE29A49-1343-407E-AFB3-6878DA830159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C298C7A-E509-4092-8C61-EEAC840647B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B9E8842-3A52-4CF4-BBCD-E715E289B993}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8538D5AF-C4BF-4B5C-BD26-2FAB27AE5EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="408">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
@@ -97,118 +97,118 @@
     <t>26,37%</t>
   </si>
   <si>
-    <t>20,76%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>47,23%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>43,27%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>13,24%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -217,1033 +217,1051 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE90389-3C9D-4574-9521-66C7CB5EBD5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC409B-CBAC-4235-B4AF-D5547AC57FFF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2748,13 +2766,13 @@
         <v>32846</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2763,13 +2781,13 @@
         <v>84596</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2802,13 @@
         <v>15424</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2799,13 +2817,13 @@
         <v>6308</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2814,13 +2832,13 @@
         <v>21732</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2853,13 @@
         <v>5778</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -2850,13 +2868,13 @@
         <v>10889</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2865,13 +2883,13 @@
         <v>16667</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2957,13 @@
         <v>74863</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H28" s="7">
         <v>144</v>
@@ -2954,13 +2972,13 @@
         <v>97185</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>256</v>
@@ -2969,13 +2987,13 @@
         <v>172048</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,10 +3143,10 @@
         <v>142</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3161,13 @@
         <v>11292</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H32" s="7">
         <v>18</v>
@@ -3158,13 +3176,13 @@
         <v>12244</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -3173,13 +3191,13 @@
         <v>23536</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,7 +3253,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD3E37D-F2A9-4DF2-B2BF-6CFD6E258111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42602FC8-BE6D-4D76-8C4A-8F4ED4C5E314}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3272,7 +3290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3923,13 +3941,13 @@
         <v>65900</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>111</v>
@@ -3938,13 +3956,13 @@
         <v>77640</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3953,13 +3971,13 @@
         <v>143540</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3992,13 @@
         <v>59550</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -3989,13 +4007,13 @@
         <v>58321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -4004,13 +4022,13 @@
         <v>117871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4043,13 @@
         <v>17957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -4040,13 +4058,13 @@
         <v>13213</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -4055,13 +4073,13 @@
         <v>31171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4094,13 @@
         <v>9356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -4091,10 +4109,10 @@
         <v>4090</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>186</v>
@@ -4109,10 +4127,10 @@
         <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4145,13 @@
         <v>3911</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4142,13 +4160,13 @@
         <v>2250</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4157,13 +4175,13 @@
         <v>6161</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4249,13 @@
         <v>52965</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -4246,13 +4264,13 @@
         <v>56889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>159</v>
@@ -4261,13 +4279,13 @@
         <v>109854</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4300,13 @@
         <v>71313</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>95</v>
@@ -4297,13 +4315,13 @@
         <v>68161</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>202</v>
@@ -4710,10 +4728,10 @@
         <v>269</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -4722,13 +4740,13 @@
         <v>33228</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4761,13 @@
         <v>10881</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H32" s="7">
         <v>10</v>
@@ -4758,13 +4776,13 @@
         <v>6660</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -4773,13 +4791,13 @@
         <v>17542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,7 +4853,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4855,7 +4873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDB7508-C6DF-48A7-B1D4-E4E7513B0997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6147A79-23BB-44FB-A23E-8542AE8000A7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4872,7 +4890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5523,13 +5541,13 @@
         <v>81888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>124</v>
@@ -5538,13 +5556,13 @@
         <v>85655</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -5553,13 +5571,13 @@
         <v>167543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5592,13 @@
         <v>62851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -5589,13 +5607,13 @@
         <v>66270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -5604,13 +5622,13 @@
         <v>129122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5643,13 @@
         <v>27707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -5640,13 +5658,13 @@
         <v>23975</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -5655,13 +5673,13 @@
         <v>51683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5694,13 @@
         <v>7653</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5691,13 +5709,13 @@
         <v>6635</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -5706,13 +5724,13 @@
         <v>14288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5745,13 @@
         <v>5243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5742,13 +5760,13 @@
         <v>2647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5757,13 +5775,13 @@
         <v>7890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5849,13 @@
         <v>47403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>90</v>
@@ -5846,13 +5864,13 @@
         <v>63496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>153</v>
@@ -5861,13 +5879,13 @@
         <v>110899</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5900,13 @@
         <v>75995</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -5897,13 +5915,13 @@
         <v>65672</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -5912,13 +5930,13 @@
         <v>141666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5951,13 @@
         <v>39121</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -5948,13 +5966,13 @@
         <v>31226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>220</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -5963,13 +5981,13 @@
         <v>70346</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +6002,13 @@
         <v>9491</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -5999,13 +6017,13 @@
         <v>6611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -6014,13 +6032,13 @@
         <v>16102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6053,13 @@
         <v>2039</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6050,13 +6068,13 @@
         <v>3785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -6065,13 +6083,13 @@
         <v>5824</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6157,13 @@
         <v>129291</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H28" s="7">
         <v>214</v>
@@ -6154,13 +6172,13 @@
         <v>149151</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -6169,13 +6187,13 @@
         <v>278442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>245</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6208,13 @@
         <v>138845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H29" s="7">
         <v>187</v>
@@ -6205,13 +6223,13 @@
         <v>131942</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>378</v>
@@ -6220,13 +6238,13 @@
         <v>270788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6259,13 @@
         <v>66828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H30" s="7">
         <v>80</v>
@@ -6256,13 +6274,13 @@
         <v>55201</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M30" s="7">
         <v>173</v>
@@ -6271,13 +6289,13 @@
         <v>122029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6310,13 @@
         <v>17144</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -6307,13 +6325,13 @@
         <v>13247</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>59</v>
+        <v>395</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -6322,13 +6340,13 @@
         <v>30390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6361,13 @@
         <v>7282</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>401</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>276</v>
+        <v>402</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -6358,13 +6376,13 @@
         <v>6432</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -6373,13 +6391,13 @@
         <v>13713</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>273</v>
+        <v>52</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6453,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C298C7A-E509-4092-8C61-EEAC840647B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35C165C-43DD-47E0-AFAC-4C425076977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8538D5AF-C4BF-4B5C-BD26-2FAB27AE5EC4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{09071589-C164-4899-B9F7-C2A87496D93D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="399">
   <si>
     <t>Menores según frecuencia de que le haya gustado ir al colegio en 2007 (Tasa respuesta: 47,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1174 +94,1147 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>32,85%</t>
   </si>
   <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>43,06%</t>
   </si>
   <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que le haya gustado ir al colegio en 2016 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC409B-CBAC-4235-B4AF-D5547AC57FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7584D6-0853-4E20-9895-F86144F276BC}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2335,10 +2308,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
-        <v>36999</v>
+        <v>50990</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2350,10 +2323,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>50990</v>
+        <v>36999</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2386,10 +2359,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>60152</v>
+        <v>55187</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2401,10 +2374,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>55187</v>
+        <v>60152</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2437,10 +2410,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>31477</v>
+        <v>16887</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2452,10 +2425,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7">
-        <v>16887</v>
+        <v>31477</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2488,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>6191</v>
+        <v>3130</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2503,10 +2476,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>3130</v>
+        <v>6191</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2539,10 +2512,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>5514</v>
+        <v>1355</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2554,10 +2527,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>1355</v>
+        <v>5514</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2590,25 +2563,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>210</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>140333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2643,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>37864</v>
+        <v>46196</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -2658,10 +2631,10 @@
         <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>46196</v>
+        <v>37864</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>68</v>
@@ -2694,10 +2667,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D23" s="7">
-        <v>92455</v>
+        <v>96382</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>74</v>
@@ -2709,10 +2682,10 @@
         <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I23" s="7">
-        <v>96382</v>
+        <v>92455</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>77</v>
@@ -2745,10 +2718,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D24" s="7">
-        <v>51750</v>
+        <v>32846</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>83</v>
@@ -2760,19 +2733,19 @@
         <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="I24" s="7">
-        <v>32846</v>
+        <v>51750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2781,13 +2754,13 @@
         <v>84596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,34 +2769,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6308</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="7">
         <v>23</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>15424</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6308</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -2832,13 +2805,13 @@
         <v>21732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,34 +2820,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10889</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="7">
         <v>9</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>5778</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>16</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10889</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2883,13 +2856,13 @@
         <v>16667</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,25 +2871,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>284</v>
+      </c>
+      <c r="D27" s="7">
+        <v>192621</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>306</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>203271</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>284</v>
-      </c>
-      <c r="I27" s="7">
-        <v>192621</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -2951,34 +2924,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>144</v>
+      </c>
+      <c r="D28" s="7">
+        <v>97185</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="7">
+      <c r="H28" s="7">
+        <v>112</v>
+      </c>
+      <c r="I28" s="7">
         <v>74863</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="7">
-        <v>144</v>
-      </c>
-      <c r="I28" s="7">
-        <v>97185</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>256</v>
@@ -2987,13 +2960,13 @@
         <v>172048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,25 +2975,25 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D29" s="7">
-        <v>152606</v>
+        <v>151568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>120</v>
       </c>
       <c r="H29" s="7">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I29" s="7">
-        <v>151568</v>
+        <v>152606</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>121</v>
@@ -3029,7 +3002,7 @@
         <v>122</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="M29" s="7">
         <v>453</v>
@@ -3038,13 +3011,13 @@
         <v>304175</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,34 +3026,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>74</v>
+      </c>
+      <c r="D30" s="7">
+        <v>49733</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="7">
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>127</v>
+      </c>
+      <c r="I30" s="7">
         <v>83228</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="7">
-        <v>74</v>
-      </c>
-      <c r="I30" s="7">
-        <v>49733</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>201</v>
@@ -3089,13 +3062,13 @@
         <v>132960</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,34 +3077,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9438</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="7">
         <v>32</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>21615</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H31" s="7">
-        <v>14</v>
-      </c>
-      <c r="I31" s="7">
-        <v>9438</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -3140,13 +3113,13 @@
         <v>31052</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,34 +3128,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7">
+        <v>12244</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="7">
         <v>17</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>11292</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="7">
-        <v>18</v>
-      </c>
-      <c r="I32" s="7">
-        <v>12244</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -3191,13 +3164,13 @@
         <v>23536</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,25 +3179,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>475</v>
+      </c>
+      <c r="D33" s="7">
+        <v>320168</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>516</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>343604</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>475</v>
-      </c>
-      <c r="I33" s="7">
-        <v>320168</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3253,7 +3226,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42602FC8-BE6D-4D76-8C4A-8F4ED4C5E314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93727E65-BBB6-485A-B740-580D907CFD54}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3935,34 +3908,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>111</v>
+      </c>
+      <c r="D16" s="7">
+        <v>77640</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>65900</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="7">
-        <v>111</v>
-      </c>
-      <c r="I16" s="7">
-        <v>77640</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -3971,13 +3944,13 @@
         <v>143540</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +3959,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7">
+        <v>58321</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
         <v>85</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>59550</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="7">
-        <v>82</v>
-      </c>
-      <c r="I17" s="7">
-        <v>58321</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -4022,13 +3995,13 @@
         <v>117871</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4010,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13213</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="7">
         <v>27</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>17957</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="7">
-        <v>19</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13213</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -4073,13 +4046,13 @@
         <v>31171</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,34 +4061,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4090</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="7">
         <v>14</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>9356</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4090</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -4124,10 +4097,10 @@
         <v>13446</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>188</v>
@@ -4139,34 +4112,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2250</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>3911</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2250</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -4175,7 +4148,7 @@
         <v>6161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>195</v>
@@ -4190,25 +4163,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4243,10 +4216,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7">
-        <v>52965</v>
+        <v>56889</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>197</v>
@@ -4258,10 +4231,10 @@
         <v>199</v>
       </c>
       <c r="H22" s="7">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>56889</v>
+        <v>52965</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>200</v>
@@ -4282,10 +4255,10 @@
         <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,34 +4267,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>95</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68161</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="7">
         <v>107</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>71313</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="7">
-        <v>95</v>
-      </c>
-      <c r="I23" s="7">
-        <v>68161</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>202</v>
@@ -4330,13 +4303,13 @@
         <v>139474</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,34 +4318,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>29328</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>31811</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="7">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7">
-        <v>29328</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -4381,13 +4354,13 @@
         <v>61139</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,34 +4369,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7007</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="7">
         <v>19</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>12775</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>7007</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -4432,13 +4405,13 @@
         <v>19783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,34 +4420,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" s="7">
+        <v>4411</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="7">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
         <v>6970</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4411</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4483,13 +4456,13 @@
         <v>11381</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,25 +4471,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>165796</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175834</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>235</v>
-      </c>
-      <c r="I27" s="7">
-        <v>165796</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4551,34 +4524,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>193</v>
+      </c>
+      <c r="D28" s="7">
+        <v>134529</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="7">
         <v>170</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>118864</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H28" s="7">
-        <v>193</v>
-      </c>
-      <c r="I28" s="7">
-        <v>134529</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M28" s="7">
         <v>363</v>
@@ -4587,13 +4560,13 @@
         <v>253394</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,34 +4575,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>126482</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="7">
         <v>192</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>130863</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H29" s="7">
-        <v>177</v>
-      </c>
-      <c r="I29" s="7">
-        <v>126482</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M29" s="7">
         <v>369</v>
@@ -4638,13 +4611,13 @@
         <v>257345</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,34 +4626,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>60</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42542</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="7">
         <v>72</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>49768</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H30" s="7">
-        <v>60</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42542</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>132</v>
@@ -4689,13 +4662,13 @@
         <v>92310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,34 +4677,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>16</v>
+      </c>
+      <c r="D31" s="7">
+        <v>11097</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="7">
         <v>33</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>22131</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H31" s="7">
-        <v>16</v>
-      </c>
-      <c r="I31" s="7">
-        <v>11097</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M31" s="7">
         <v>49</v>
@@ -4740,13 +4713,13 @@
         <v>33228</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,34 +4728,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6660</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="7">
         <v>17</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>10881</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" s="7">
-        <v>10</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6660</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -4791,13 +4764,13 @@
         <v>17542</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,25 +4779,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>456</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321310</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>484</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>332508</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>456</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321310</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -4853,7 +4826,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4873,7 +4846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6147A79-23BB-44FB-A23E-8542AE8000A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730B4AF-98FD-4B0C-A3C3-9347D45D8644}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4890,7 +4863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5535,34 +5508,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7">
+        <v>85655</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="7">
         <v>113</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>81888</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H16" s="7">
-        <v>124</v>
-      </c>
-      <c r="I16" s="7">
-        <v>85655</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -5571,13 +5544,13 @@
         <v>167543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,34 +5559,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7">
+        <v>66270</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="7">
         <v>89</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>62851</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" s="7">
-        <v>94</v>
-      </c>
-      <c r="I17" s="7">
-        <v>66270</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>183</v>
@@ -5622,13 +5595,13 @@
         <v>129122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,34 +5610,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23975</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>27707</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23975</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>74</v>
@@ -5673,13 +5646,13 @@
         <v>51683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,34 +5661,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6635</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>7653</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6635</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -5724,13 +5697,13 @@
         <v>14288</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,34 +5712,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2647</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="7">
         <v>7</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>5243</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2647</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5775,13 +5748,13 @@
         <v>7890</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,25 +5763,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>266</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>258</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185342</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>266</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185183</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -5843,34 +5816,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7">
+        <v>63496</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="7">
+        <v>63</v>
+      </c>
+      <c r="I22" s="7">
         <v>47403</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H22" s="7">
-        <v>90</v>
-      </c>
-      <c r="I22" s="7">
-        <v>63496</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>153</v>
@@ -5882,10 +5855,10 @@
         <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,34 +5867,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>93</v>
+      </c>
+      <c r="D23" s="7">
+        <v>65672</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="7">
         <v>102</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>75995</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H23" s="7">
-        <v>93</v>
-      </c>
-      <c r="I23" s="7">
-        <v>65672</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M23" s="7">
         <v>195</v>
@@ -5930,13 +5903,13 @@
         <v>141666</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,34 +5918,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>31226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="7">
         <v>54</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>39121</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>31226</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -5981,13 +5954,13 @@
         <v>70346</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,34 +5969,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6611</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="7">
         <v>13</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>9491</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H25" s="7">
-        <v>10</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6611</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -6032,13 +6005,13 @@
         <v>16102</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,34 +6020,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3785</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>2039</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3785</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -6083,13 +6056,13 @@
         <v>5824</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,25 +6071,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>243</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170789</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>235</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174048</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>243</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170789</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6151,34 +6124,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>214</v>
+      </c>
+      <c r="D28" s="7">
+        <v>149151</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="7">
         <v>176</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>129291</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H28" s="7">
-        <v>214</v>
-      </c>
-      <c r="I28" s="7">
-        <v>149151</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -6187,13 +6160,13 @@
         <v>278442</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6175,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>187</v>
+      </c>
+      <c r="D29" s="7">
+        <v>131942</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="7">
         <v>191</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>138845</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H29" s="7">
-        <v>187</v>
-      </c>
-      <c r="I29" s="7">
-        <v>131942</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M29" s="7">
         <v>378</v>
@@ -6238,13 +6211,13 @@
         <v>270788</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,34 +6226,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7">
+        <v>55201</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="7">
         <v>93</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>66828</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H30" s="7">
-        <v>80</v>
-      </c>
-      <c r="I30" s="7">
-        <v>55201</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="M30" s="7">
         <v>173</v>
@@ -6289,13 +6262,13 @@
         <v>122029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,34 +6277,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13247</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="7">
         <v>23</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>17144</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H31" s="7">
-        <v>19</v>
-      </c>
-      <c r="I31" s="7">
-        <v>13247</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -6340,13 +6313,13 @@
         <v>30390</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,34 +6328,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>6432</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="7">
         <v>10</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>7282</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H32" s="7">
-        <v>9</v>
-      </c>
-      <c r="I32" s="7">
-        <v>6432</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -6391,13 +6364,13 @@
         <v>13713</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>396</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6406,25 +6379,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>355972</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>359389</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>355972</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6453,7 +6426,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
